--- a/biology/Botanique/Pinanga_subterranea/Pinanga_subterranea.xlsx
+++ b/biology/Botanique/Pinanga_subterranea/Pinanga_subterranea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinanga subterranea est une espèce de palmiers, originaire de Bornéo (Indonésie). Cette espèce est exceptionnelle par son mode de reproduction, entièrement souterrain[2],[3].
-Ce palmier a été découvert par hasard en 1997 par Paul Chai, ancien botaniste du service des forêts de la Malaisie[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pinanga subterranea est une espèce de palmiers, originaire de Bornéo (Indonésie). Cette espèce est exceptionnelle par son mode de reproduction, entièrement souterrain,.
+Ce palmier a été découvert par hasard en 1997 par Paul Chai, ancien botaniste du service des forêts de la Malaisie.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinanga subterranea a une stratégie de reproduction très inhabituelle. Ses fleurs sont souterraines donc pollinisées sous la surface du sol, et les fruits se développent également sous terre.
-La pollinisation des fleurs femelles se fait peut-être par autofécondation vu la proximité des fleurs mâles, mais cela reste à démontrer[4].
-Les graines sont dispersées par les sangliers à moustaches (Sus barbatus), qui creusent le sol pour atteindre les fruits[5].
-Auparavant, un tel phénomène n’avait été observé que dans une autre espèce végétale, les orchidées du genre Rhizanthella[4].
+La pollinisation des fleurs femelles se fait peut-être par autofécondation vu la proximité des fleurs mâles, mais cela reste à démontrer.
+Les graines sont dispersées par les sangliers à moustaches (Sus barbatus), qui creusent le sol pour atteindre les fruits.
+Auparavant, un tel phénomène n’avait été observé que dans une autre espèce végétale, les orchidées du genre Rhizanthella.
 </t>
         </is>
       </c>
